--- a/DATA/user.xlsx
+++ b/DATA/user.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
   <si>
     <t>qc02</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,9 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈琼</t>
-  </si>
-  <si>
     <t>lwy110@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,6 +479,110 @@
   </si>
   <si>
     <t>2018_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mc03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈琼（13970297824）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +963,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,39 +993,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>15557939257</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>15068277957</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -933,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -945,13 +1046,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -960,16 +1064,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" t="s">
-        <v>89</v>
+      <c r="E6" t="s">
+        <v>126</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -981,13 +1088,16 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -998,16 +1108,22 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -1016,16 +1132,22 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -1039,6 +1161,12 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
       <c r="I10">
         <v>1</v>
       </c>
@@ -1051,31 +1179,43 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="C11" t="s">
-        <v>93</v>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
         <v>94</v>
       </c>
-      <c r="C12" t="s">
-        <v>95</v>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1089,19 +1229,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>18012188396</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -1112,13 +1255,19 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -1126,19 +1275,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>13989699388</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -1146,16 +1301,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>18767608258</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -1163,37 +1321,46 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
-        <v>80</v>
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
-        <v>35</v>
+      <c r="E18" t="s">
+        <v>130</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -1201,19 +1368,25 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>13939523706</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -1221,16 +1394,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
-        <v>38</v>
+      <c r="E20" t="s">
+        <v>118</v>
       </c>
       <c r="J20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -1238,34 +1414,43 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>136</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>15558722151</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -1273,248 +1458,275 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>13791350952</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>18505160563</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>15233851049</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>15267946627</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>17858694878</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>137</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>13736890417</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>17858694869</v>
       </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>13965223862</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>13989733480</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>13939526121</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <v>15757582488</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>17858694875</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35">
         <v>18705571704</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
         <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38">
         <v>18858810476</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39">
         <v>18858967476</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40">
         <v>18368769758</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41">
         <v>15052687526</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>13013904394</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/user.xlsx
+++ b/DATA/user.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="148">
   <si>
     <t>qc02</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蝴蝶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mc10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,10 +554,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fe16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pi01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,10 +562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fe03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dc02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,6 +571,35 @@
   </si>
   <si>
     <t>fe12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>562151838@qq.com</t>
+  </si>
+  <si>
+    <t>任向玉</t>
+  </si>
+  <si>
+    <t>欣利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luoll520.student@sina.com</t>
+  </si>
+  <si>
+    <t>萝莉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,31 +1018,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>15557939257</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>15068277957</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1034,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -1048,14 +1068,17 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -1064,19 +1087,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
-        <v>88</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -1090,14 +1116,17 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -1113,8 +1142,11 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1123,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -1135,10 +1167,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1147,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -1161,8 +1196,11 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -1182,10 +1220,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
         <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -1197,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -1206,13 +1244,16 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
         <v>93</v>
       </c>
-      <c r="C12" t="s">
-        <v>94</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1238,7 +1279,10 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>116</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1257,8 +1301,11 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -1267,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -1283,17 +1330,17 @@
       <c r="C15" t="s">
         <v>29</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="E15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -1307,10 +1354,13 @@
         <v>18767608258</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>30</v>
@@ -1324,22 +1374,22 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="C17" t="s">
-        <v>79</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1353,14 +1403,20 @@
       <c r="C18" t="s">
         <v>34</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>139</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -1374,19 +1430,16 @@
         <v>13939523706</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -1402,11 +1455,17 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -1422,11 +1481,17 @@
       <c r="C21" t="s">
         <v>67</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>122</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -1440,17 +1505,17 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="E22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -1466,11 +1531,11 @@
       <c r="C23" t="s">
         <v>45</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
       <c r="E23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1485,19 +1550,19 @@
         <v>42</v>
       </c>
       <c r="B24">
-        <v>18505160563</v>
+        <v>18092755859</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K24" s="2"/>
     </row>
@@ -1509,16 +1574,16 @@
         <v>15233851049</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -1532,14 +1597,17 @@
       <c r="C26" t="s">
         <v>48</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K26" s="2"/>
     </row>
@@ -1551,16 +1619,16 @@
         <v>17858694878</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27" s="2"/>
     </row>
@@ -1575,7 +1643,7 @@
         <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1586,7 +1654,7 @@
         <v>17858694869</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1599,9 +1667,6 @@
       <c r="C30" t="s">
         <v>54</v>
       </c>
-      <c r="E30" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1663,10 +1728,10 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1676,57 +1741,79 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38">
         <v>18858810476</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39">
         <v>18858967476</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40">
         <v>18368769758</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>15052687526</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42">
         <v>13013904394</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
